--- a/output/Números.xlsx
+++ b/output/Números.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A470"/>
+  <dimension ref="A1:A331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,2352 +348,1657 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1191313038</v>
+        <v>2994379518</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1142157743</v>
+        <v>2984366678</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1436245766</v>
+        <v>2982774441</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1937700206</v>
+        <v>2992823567</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>1140630541</v>
+        <v>2991673442</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1149331070</v>
+        <v>2993252699</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>1185688503</v>
+        <v>2981473004</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>1155993131</v>
+        <v>2996031000</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>1123859000</v>
+        <v>2995062733</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>1132080966</v>
+        <v>2992832148</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>1124082747</v>
+        <v>2991236246</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>1132738800</v>
+        <v>2992534394</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>1147501708</v>
+        <v>2981111303</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>1131701999</v>
+        <v>2988261725</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>1196490411</v>
+        <v>2991170684</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>1147502212</v>
+        <v>2992732773</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>1130590846</v>
+        <v>2992795542</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>1147502213</v>
+        <v>2995202042</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>1189623744</v>
+        <v>2991922683</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>1141343747</v>
+        <v>2981708071</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>1126923300</v>
+        <v>2981275642</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>1192625300</v>
+        <v>2992467315</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>1191286489</v>
+        <v>2991005912</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>1167294342</v>
+        <v>2984390586</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>1154604285</v>
+        <v>2992458043</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>1129717963</v>
+        <v>2991701812</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>1121985555</v>
+        <v>2991179350</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>1281348418</v>
+        <v>2993965797</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>1682070303</v>
+        <v>2992392323</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>1131072129</v>
+        <v>2984382125</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>1125929010</v>
+        <v>2982110658</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>1143564050</v>
+        <v>2981569060</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>1126010400</v>
+        <v>2991523391</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>1134439903</v>
+        <v>2993394255</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>1130180000</v>
+        <v>2984103252</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>1130952000</v>
+        <v>2994433235</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>1155923200</v>
+        <v>2988120926</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>1125000144</v>
+        <v>2993205673</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>1171264073</v>
+        <v>2994583358</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>1181897222</v>
+        <v>2984460091</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>1730420764</v>
+        <v>2992888866</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>1130180000</v>
+        <v>2992517507</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>1193099316</v>
+        <v>2981342714</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>1139342200</v>
+        <v>2991973910</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>1195696989</v>
+        <v>2991624210</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>1133589000</v>
+        <v>2991884786</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>1150618939</v>
+        <v>2994399102</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>1179856584</v>
+        <v>2991673443</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>1170209064</v>
+        <v>4199430932</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>1145087777</v>
+        <v>2982007080</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>1152470008</v>
+        <v>2981289889</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>1120917921</v>
+        <v>2991339602</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>1159041300</v>
+        <v>2981446837</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>1175915039</v>
+        <v>2991584351</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>1135898008</v>
+        <v>2992856323</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>1123864166</v>
+        <v>2981652619</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>1120618534</v>
+        <v>2981960150</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>1138680255</v>
+        <v>2994609739</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>1141131580</v>
+        <v>2993179914</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1135129849</v>
+        <v>2994645487</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>1130180000</v>
+        <v>2993005903</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>1333854517</v>
+        <v>2991989641</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>1199531955</v>
+        <v>2994598107</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>1139099000</v>
+        <v>2981201777</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>1138861000</v>
+        <v>2994207734</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>1189251160</v>
+        <v>2992403392</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>1138018325</v>
+        <v>2991120445</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>1130609109</v>
+        <v>1147265519</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1150802525</v>
+        <v>2994346313</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>1198142857</v>
+        <v>2991993729</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>1123735777</v>
+        <v>2993146764</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>1147265519</v>
+        <v>6192416360</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>1186615471</v>
+        <v>2992448975</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>1171955805</v>
+        <v>2991315300</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>1198508667</v>
+        <v>2999957391</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>1141077742</v>
+        <v>2991029232</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>1196695110</v>
+        <v>2991764998</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>1150586772</v>
+        <v>2993636395</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>1130107190</v>
+        <v>2991823966</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1137742424</v>
+        <v>2993187700</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>1171452616</v>
+        <v>2981332073</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>1155390308</v>
+        <v>2981217300</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>1198468326</v>
+        <v>2991600305</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>1130901001</v>
+        <v>2981534534</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>1187177139</v>
+        <v>2981477068</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>1194566395</v>
+        <v>2994979394</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>1162706640</v>
+        <v>2982710051</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>1177099302</v>
+        <v>2991816543</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>1381808204</v>
+        <v>2982436388</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>1185511591</v>
+        <v>2991193004</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>1126596450</v>
+        <v>2991046275</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>1182213297</v>
+        <v>2992047444</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>1150715000</v>
+        <v>2984391116</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>1145023333</v>
+        <v>2992952309</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>1186186459</v>
+        <v>2993545556</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>1185210154</v>
+        <v>2991697797</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>1138046123</v>
+        <v>2993192015</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>1164796432</v>
+        <v>2981390269</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>1148545901</v>
+        <v>2992534582</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>1197359881</v>
+        <v>2994897167</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>1165954066</v>
+        <v>2992522399</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>1166944407</v>
+        <v>2981828549</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>1130180000</v>
+        <v>2992072917</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>1196415224</v>
+        <v>2981604615</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>1155614142</v>
+        <v>2981547479</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>1121984955</v>
+        <v>2991446998</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>1153307165</v>
+        <v>2981121651</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>1140033319</v>
+        <v>2981286630</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>1132249575</v>
+        <v>2981281684</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>1162870707</v>
+        <v>2981840491</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>1334674543</v>
+        <v>2991329882</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>1147327917</v>
+        <v>2981235608</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>1134699696</v>
+        <v>2991373301</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>1192309696</v>
+        <v>2993621751</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>1138841400</v>
+        <v>2982393049</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>1189798445</v>
+        <v>2982021413</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>1191044690</v>
+        <v>2981333515</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>1159627430</v>
+        <v>2991918383</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>1145023456</v>
+        <v>2984382125</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>1150633900</v>
+        <v>2991623470</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>1183581262</v>
+        <v>2981565629</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>1123380387</v>
+        <v>2981941122</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>2190328992</v>
+        <v>2981787690</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>1140420273</v>
+        <v>2981826717</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>1138582600</v>
+        <v>2992828157</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>1123481188</v>
+        <v>2981887701</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>1129152222</v>
+        <v>2981256767</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>1150416599</v>
+        <v>2991317926</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>1124424040</v>
+        <v>2991521956</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>1132340000</v>
+        <v>2981750823</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>1126727200</v>
+        <v>2988391098</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>1187481119</v>
+        <v>2992955905</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>1150798243</v>
+        <v>2991776305</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>1139040816</v>
+        <v>2993378899</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>1133841122</v>
+        <v>2981121650</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>1179896813</v>
+        <v>2991559909</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>1171706800</v>
+        <v>2991818743</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>1175725772</v>
+        <v>2991721226</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>1130935251</v>
+        <v>2991149501</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>1156524581</v>
+        <v>2981138616</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>1135677681</v>
+        <v>2984672760</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>1130030677</v>
+        <v>2991907200</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>1159368687</v>
+        <v>2992515175</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>1192753791</v>
+        <v>2982447311</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>1185123943</v>
+        <v>2981279940</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>1147490600</v>
+        <v>2995293138</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>1281427872</v>
+        <v>2992771101</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>1126950655</v>
+        <v>2981308029</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>1170313743</v>
+        <v>2981155186</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>1199316698</v>
+        <v>2991437272</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>1176679729</v>
+        <v>2995294085</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>1184706916</v>
+        <v>2991175725</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>1183833907</v>
+        <v>2981180920</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>1176308951</v>
+        <v>2982354760</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>1147091303</v>
+        <v>2994200934</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>8981391461</v>
+        <v>1149972956</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>1141151016</v>
+        <v>2991127539</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>1147211202</v>
+        <v>2994004008</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>8981480518</v>
+        <v>2981473019</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>1196554239</v>
+        <v>2982021976</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>1199716134</v>
+        <v>2993367430</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>1150810944</v>
+        <v>2991960504</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>1142523255</v>
+        <v>2991104639</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>1185591920</v>
+        <v>2982407860</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>1147699669</v>
+        <v>2982225009</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>1169409270</v>
+        <v>2981493913</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>1165244584</v>
+        <v>2991426531</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>1151812006</v>
+        <v>2981159079</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>1159298989</v>
+        <v>2991507413</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>1170527435</v>
+        <v>2984549226</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>1140459545</v>
+        <v>2981010308</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>1193044071</v>
+        <v>2995224040</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>1150963202</v>
+        <v>2991818213</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>1129669444</v>
+        <v>2991476303</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>1131594910</v>
+        <v>2981244730</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>1194029822</v>
+        <v>2981257790</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>1149623964</v>
+        <v>2996090365</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>1130321606</v>
+        <v>2981381059</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>1132071936</v>
+        <v>2991489351</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>1199946771</v>
+        <v>2984619454</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>2192224664</v>
+        <v>2991265188</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>1199660598</v>
+        <v>2991069730</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>1177459999</v>
+        <v>2994568195</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>1170252000</v>
+        <v>2992190682</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>1196855292</v>
+        <v>2984156119</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>1164778995</v>
+        <v>2981217728</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>1155242002</v>
+        <v>2993332429</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>1130180000</v>
+        <v>2981720221</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>1999175444</v>
+        <v>2993723883</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>1150907070</v>
+        <v>2981177321</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>1139040137</v>
+        <v>2981697768</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>1983922746</v>
+        <v>2991953884</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>2197033737</v>
+        <v>2981360551</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>1168837861</v>
+        <v>2993207344</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>1138311055</v>
+        <v>2993088729</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>2798803174</v>
+        <v>2991731933</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>1184567070</v>
+        <v>2993427353</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>1147533836</v>
+        <v>2993520237</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>1133332855</v>
+        <v>2981241645</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>1198257945</v>
+        <v>2991206932</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>1199229986</v>
+        <v>2981081705</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>1491033911</v>
+        <v>2991787287</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>1185094370</v>
+        <v>2981134376</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>1173234202</v>
+        <v>2981230746</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>1155217444</v>
+        <v>2982122064</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>1193931431</v>
+        <v>2981467400</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>1150014763</v>
+        <v>2996063466</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>1193233934</v>
+        <v>2991052481</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>1170214835</v>
+        <v>2992802837</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>1186010147</v>
+        <v>2992140043</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>1182449544</v>
+        <v>2981408123</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>1170357852</v>
+        <v>2984118408</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>1182773974</v>
+        <v>2991011020</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>1147053653</v>
+        <v>2991528611</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>1181729827</v>
+        <v>2994026149</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>1186300291</v>
+        <v>2981159390</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>1173777792</v>
+        <v>2991754112</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>1172863147</v>
+        <v>4498363705</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>1137133736</v>
+        <v>2982000825</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>1182236352</v>
+        <v>2993885844</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>1147038556</v>
+        <v>2993361346</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>1172182698</v>
+        <v>2995334100</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>1155846500</v>
+        <v>2992675589</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>1184845391</v>
+        <v>2992704581</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>1123670402</v>
+        <v>2994181703</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>1131815959</v>
+        <v>2981032290</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>1135429999</v>
+        <v>2991167976</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>1181265103</v>
+        <v>2991280036</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>1187999580</v>
+        <v>2991117151</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>1796747878</v>
+        <v>2981758838</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>1239321500</v>
+        <v>2984310824</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>1130401601</v>
+        <v>2991758002</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>1172050133</v>
+        <v>2992627141</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>1135083686</v>
+        <v>2991804425</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>1130321982</v>
+        <v>1130030677</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>1129580103</v>
+        <v>2984433317</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>1139031802</v>
+        <v>2993266121</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>1195955624</v>
+        <v>2988297786</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>1123642629</v>
+        <v>2992207657</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>1126807811</v>
+        <v>2993796337</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>3184688276</v>
+        <v>2999825742</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1193112104</v>
+        <v>2981144148</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>1161050510</v>
+        <v>2996318076</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>1186019799</v>
+        <v>1896663457</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>1143391845</v>
+        <v>2991130895</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>1175019700</v>
+        <v>2991307434</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>1147712572</v>
+        <v>2984514531</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>1139322110</v>
+        <v>5984127350</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>1159865618</v>
+        <v>2991166454</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>1138343115</v>
+        <v>2982766179</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>1142271850</v>
+        <v>2981935817</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>1140028880</v>
+        <v>9233048182</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>1199611882</v>
+        <v>2992386986</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>1164641190</v>
+        <v>2982155440</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>1143269714</v>
+        <v>2981580303</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>1163089782</v>
+        <v>2999822617</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>1138527888</v>
+        <v>2981926000</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>1173650526</v>
+        <v>2999883595</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>1176329225</v>
+        <v>2981869307</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>1194914710</v>
+        <v>2981369737</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>1239439300</v>
+        <v>2981379794</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>1129501177</v>
+        <v>2992089273</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>1125010305</v>
+        <v>2988122458</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>4197763432</v>
+        <v>2992265058</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>1191852585</v>
+        <v>2999852576</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1135653530</v>
+        <v>2994487138</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>1184714902</v>
+        <v>2992437446</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>1296686461</v>
+        <v>2991225815</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>1197004826</v>
+        <v>2984043053</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>1520006718</v>
+        <v>2992560571</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>1397018750</v>
+        <v>2992299944</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>1381249680</v>
+        <v>2981121282</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>1176093683</v>
+        <v>2999910771</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>1187666515</v>
+        <v>4898656088</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>1135627250</v>
+        <v>2991010859</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>6791453872</v>
+        <v>2982880304</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>1187481119</v>
+        <v>2981511944</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>1165182659</v>
+        <v>2992944364</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>1132776758</v>
+        <v>2999819200</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>1198640388</v>
+        <v>2996185595</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>1145675510</v>
+        <v>2993077484</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>1144321800</v>
+        <v>2981725877</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1138574748</v>
+        <v>2999817606</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>1184059647</v>
+        <v>2993579410</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>1130096955</v>
+        <v>2991474641</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>1145377965</v>
+        <v>2984298407</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>1192127472</v>
+        <v>2981564636</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>1120965197</v>
+        <v>2991191112</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>1188536822</v>
+        <v>2994158223</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>1148193810</v>
+        <v>2981122604</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>1153109282</v>
+        <v>2982234237</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>1199507224</v>
+        <v>2999817726</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>1177861943</v>
+        <v>2981063231</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>1199839658</v>
+        <v>2992784462</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>1176263141</v>
+        <v>2993238836</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>1194248879</v>
+        <v>2981043264</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>1183070278</v>
+        <v>2982494464</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>1181227179</v>
+        <v>2991947746</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>1147602949</v>
+        <v>2981696899</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>1137688450</v>
+        <v>2992548884</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>1170946575</v>
+        <v>2992444264</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>1941191690</v>
+        <v>2991950302</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>1132300830</v>
+        <v>2982028694</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>1156942222</v>
+        <v>2994561881</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>1182525030</v>
+        <v>2991455879</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>1197997755</v>
+        <v>2984403861</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>1144467219</v>
+        <v>2994061387</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>1184440166</v>
+        <v>2992160846</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>1163701276</v>
+        <v>2994333459</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>1173371571</v>
+        <v>2992598730</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>1521050380</v>
+        <v>2167744438</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>1135828488</v>
+        <v>2993737322</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>1974010390</v>
+        <v>2991294900</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>4330285858</v>
+        <v>2981281823</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>1150197900</v>
+        <v>2981615599</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>1148929787</v>
+        <v>2991359913</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>1134594011</v>
+        <v>2993691543</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>1146001000</v>
+        <v>2982821650</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>3132699400</v>
+        <v>2981268000</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>1122360101</v>
+        <v>2984021405</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>1197070556</v>
+        <v>2982136912</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>1187161093</v>
+        <v>2991636803</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>1177298407</v>
+        <v>2992081422</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>1140348398</v>
+        <v>2994640464</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>1189671784</v>
+        <v>2993301933</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>1170693303</v>
+        <v>8288839124</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>1120470903</v>
+        <v>2981114323</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>1145972192</v>
+        <v>2994999591</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>1163591104</v>
+        <v>2992062300</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>1127977555</v>
+        <v>2991425569</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>1187983003</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332">
-        <v>1197573616</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333">
-        <v>1150019859</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334">
-        <v>1145199581</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335">
-        <v>1199453946</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336">
-        <v>1194999321</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337">
-        <v>1135866990</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338">
-        <v>1181714124</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339">
-        <v>1397782898</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340">
-        <v>1190067249</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341">
-        <v>1143396912</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342">
-        <v>1184319306</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343">
-        <v>1291661807</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344">
-        <v>1171477775</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345">
-        <v>1171477775</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346">
-        <v>1173756423</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347">
-        <v>1181912190</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348">
-        <v>1191557464</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349">
-        <v>1173756423</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350">
-        <v>1170771367</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351">
-        <v>1153017771</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352">
-        <v>1146281515</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353">
-        <v>1160609659</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354">
-        <v>1148127708</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355">
-        <v>1147073084</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356">
-        <v>1120218642</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357">
-        <v>1195343395</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358">
-        <v>1141712222</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359">
-        <v>1130222952</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360">
-        <v>1186201658</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361">
-        <v>1128977771</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362">
-        <v>1149943477</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363">
-        <v>1187187709</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364">
-        <v>1183240924</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365">
-        <v>1166593569</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366">
-        <v>1182648760</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367">
-        <v>1199321115</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368">
-        <v>1185694673</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369">
-        <v>1130478756</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370">
-        <v>1997951152</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371">
-        <v>1171249281</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372">
-        <v>1183066388</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373">
-        <v>1198645913</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374">
-        <v>1192149725</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375">
-        <v>1197475993</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376">
-        <v>1192502272</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377">
-        <v>1187577284</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378">
-        <v>1296380753</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379">
-        <v>1139371217</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380">
-        <v>1187474000</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381">
-        <v>1130512567</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382">
-        <v>1189221717</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383">
-        <v>1697298833</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384">
-        <v>1160822475</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385">
-        <v>1194149303</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386">
-        <v>1172578705</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387">
-        <v>1135999180</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388">
-        <v>1140842616</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389">
-        <v>1199917009</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390">
-        <v>1233220333</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391">
-        <v>1162047180</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392">
-        <v>1933428773</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393">
-        <v>1181778452</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394">
-        <v>1194038740</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395">
-        <v>1181544872</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396">
-        <v>1199470082</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397">
-        <v>1175513835</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398">
-        <v>1139325557</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399">
-        <v>1194008673</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400">
-        <v>1160595023</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401">
-        <v>1152143535</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402">
-        <v>1126001218</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403">
-        <v>1693527000</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404">
-        <v>1182324413</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405">
-        <v>1179516740</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406">
-        <v>1192280731</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407">
-        <v>1381546001</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408">
-        <v>1187107176</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409">
-        <v>1185968382</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410">
-        <v>1144597754</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411">
-        <v>1191425967</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412">
-        <v>1184449118</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413">
-        <v>1996410515</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414">
-        <v>1150760240</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415">
-        <v>1125281792</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416">
-        <v>1194154589</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417">
-        <v>1170506666</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418">
-        <v>1155128072</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419">
-        <v>1162047180</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420">
-        <v>1181729827</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421">
-        <v>1192395655</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422">
-        <v>1166780696</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423">
-        <v>1199936609</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424">
-        <v>1194854387</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425">
-        <v>1132158000</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426">
-        <v>1381043177</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427">
-        <v>1192082149</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428">
-        <v>1171025901</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429">
-        <v>1195941675</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430">
-        <v>1142271809</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431">
-        <v>1185568087</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432">
-        <v>1391610371</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433">
-        <v>1123847633</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434">
-        <v>1691744723</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435">
-        <v>1162712396</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436">
-        <v>1182408973</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437">
-        <v>1175010876</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438">
-        <v>1191759001</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439">
-        <v>1796668558</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440">
-        <v>1183000822</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441">
-        <v>1193484693</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442">
-        <v>1168681303</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443">
-        <v>1191105471</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444">
-        <v>1185517312</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445">
-        <v>1187120660</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446">
-        <v>1232036500</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447">
-        <v>1195538501</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448">
-        <v>1150001751</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449">
-        <v>1192221112</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450">
-        <v>1149658100</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451">
-        <v>1187206012</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452">
-        <v>1177538562</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453">
-        <v>1181130731</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454">
-        <v>1169052295</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455">
-        <v>1160344570</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456">
-        <v>1137145987</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457">
-        <v>1168648752</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458">
-        <v>1153222150</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459">
-        <v>1184250808</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460">
-        <v>1186708110</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461">
-        <v>1159105014</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462">
-        <v>1171777592</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463">
-        <v>1172786029</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464">
-        <v>1185269755</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465">
-        <v>1186494306</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466">
-        <v>1167225853</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467">
-        <v>1159611231</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468">
-        <v>1175100106</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469">
-        <v>1941414141</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470">
-        <v>1189835953</v>
+        <v>2999988251</v>
       </c>
     </row>
   </sheetData>

--- a/output/Números.xlsx
+++ b/output/Números.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A331"/>
+  <dimension ref="A1:A323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,1657 +348,1617 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>2994379518</v>
+        <v>5195985012</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2984366678</v>
+        <v>5189110939</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2982774441</v>
+        <v>1992042297</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>2992823567</v>
+        <v>5199870531</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2991673442</v>
+        <v>5185709078</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>2993252699</v>
+        <v>5198062922</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>2981473004</v>
+        <v>5192352166</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>2996031000</v>
+        <v>5131039434</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>2995062733</v>
+        <v>5391718005</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>2992832148</v>
+        <v>5491815799</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>2991236246</v>
+        <v>5399559696</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>2992534394</v>
+        <v>5599954002</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>2981111303</v>
+        <v>5384622876</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>2988261725</v>
+        <v>5194272250</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>2991170684</v>
+        <v>5186085513</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>2992732773</v>
+        <v>5184120190</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>2992795542</v>
+        <v>5381291809</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>2995202042</v>
+        <v>5499778793</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>2991922683</v>
+        <v>5185629329</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>2981708071</v>
+        <v>5192883618</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>2981275642</v>
+        <v>5191003305</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>2992467315</v>
+        <v>5399468748</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>2991005912</v>
+        <v>5199972760</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>2984390586</v>
+        <v>5197785151</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>2992458043</v>
+        <v>5197362665</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>2991701812</v>
+        <v>5492112438</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>2991179350</v>
+        <v>5384039234</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>2993965797</v>
+        <v>5195008005</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>2992392323</v>
+        <v>5185416666</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>2984382125</v>
+        <v>5492463076</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>2982110658</v>
+        <v>4899751500</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>2981569060</v>
+        <v>5399383100</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>2991523391</v>
+        <v>5533478117</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>2993394255</v>
+        <v>5196171774</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>2984103252</v>
+        <v>5184119494</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>2994433235</v>
+        <v>5199688452</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>2988120926</v>
+        <v>5192890927</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>2993205673</v>
+        <v>5496105566</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>2994583358</v>
+        <v>5196008541</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>2984460091</v>
+        <v>5199840400</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>2992888866</v>
+        <v>5182133000</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>2992517507</v>
+        <v>5191761292</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>2981342714</v>
+        <v>5199974929</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>2991973910</v>
+        <v>5391170535</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>2991624210</v>
+        <v>5186379661</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>2991884786</v>
+        <v>5332278847</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>2994399102</v>
+        <v>5195850502</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>2991673443</v>
+        <v>5599276675</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>4199430932</v>
+        <v>5491632436</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>2982007080</v>
+        <v>4792167049</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>2981289889</v>
+        <v>5184302620</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>2991339602</v>
+        <v>5491679793</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>2981446837</v>
+        <v>5197233563</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>2991584351</v>
+        <v>5381213020</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>2992856323</v>
+        <v>5381045339</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>2981652619</v>
+        <v>5491453030</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>2981960150</v>
+        <v>5195567071</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>2994609739</v>
+        <v>5384470938</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>2993179914</v>
+        <v>5198978781</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>2994645487</v>
+        <v>5185180064</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>2993005903</v>
+        <v>5599818933</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>2991989641</v>
+        <v>5391620042</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>2994598107</v>
+        <v>5198618949</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>2981201777</v>
+        <v>5199860812</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>2994207734</v>
+        <v>5191242607</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>2992403392</v>
+        <v>5193261343</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>2991120445</v>
+        <v>5496638730</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>1147265519</v>
+        <v>5192681739</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>2994346313</v>
+        <v>5197267170</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>2991993729</v>
+        <v>5182639576</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>2993146764</v>
+        <v>5191915402</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>6192416360</v>
+        <v>5181444450</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>2992448975</v>
+        <v>5121230707</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>2991315300</v>
+        <v>5189513671</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>2999957391</v>
+        <v>5191844038</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>2991029232</v>
+        <v>5384422861</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>2991764998</v>
+        <v>5199668232</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>2993636395</v>
+        <v>5381504550</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>2991823966</v>
+        <v>5194441933</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>2993187700</v>
+        <v>5199449945</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>2981332073</v>
+        <v>5196127755</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>2981217300</v>
+        <v>5199492870</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>2991600305</v>
+        <v>5199914285</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>2981534534</v>
+        <v>5199189966</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>2981477068</v>
+        <v>5192441159</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>2994979394</v>
+        <v>5186006800</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>2982710051</v>
+        <v>5184616145</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>2991816543</v>
+        <v>5136652002</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>2982436388</v>
+        <v>5134593391</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>2991193004</v>
+        <v>5191812881</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>2991046275</v>
+        <v>5193569988</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>2992047444</v>
+        <v>5481107257</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>2984391116</v>
+        <v>5191145084</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>2992952309</v>
+        <v>5195230167</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>2993545556</v>
+        <v>5199837149</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>2991697797</v>
+        <v>5496478960</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>2993192015</v>
+        <v>5196180841</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>2981390269</v>
+        <v>5599302121</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>2992534582</v>
+        <v>5599701258</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>2994897167</v>
+        <v>5491783763</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>2992522399</v>
+        <v>5184482192</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>2981828549</v>
+        <v>5180111788</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>2992072917</v>
+        <v>5384855916</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>2981604615</v>
+        <v>5193136024</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>2981547479</v>
+        <v>5592387666</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>2991446998</v>
+        <v>5399333362</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>2981121651</v>
+        <v>5193115652</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>2981286630</v>
+        <v>5496260528</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>2981281684</v>
+        <v>5196960896</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>2981840491</v>
+        <v>6699444747</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>2991329882</v>
+        <v>5181685058</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>2981235608</v>
+        <v>5193708617</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>2991373301</v>
+        <v>5181347742</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>2993621751</v>
+        <v>2197991302</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>2982393049</v>
+        <v>5181301213</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>2982021413</v>
+        <v>5391454894</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>2981333515</v>
+        <v>5195757300</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>2991918383</v>
+        <v>5384389401</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>2984382125</v>
+        <v>5199956319</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>2991623470</v>
+        <v>5191676712</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>2981565629</v>
+        <v>5193925547</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>2981941122</v>
+        <v>5198378308</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>2981787690</v>
+        <v>5191042550</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>2981826717</v>
+        <v>5184796036</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>2992828157</v>
+        <v>5199698902</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>2981887701</v>
+        <v>5193936515</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>2981256767</v>
+        <v>5184410490</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>2991317926</v>
+        <v>5185107238</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>2991521956</v>
+        <v>5199686262</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>2981750823</v>
+        <v>5192484971</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>2988391098</v>
+        <v>5196793550</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>2992955905</v>
+        <v>5199674010</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>2991776305</v>
+        <v>5182165957</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>2993378899</v>
+        <v>5186111880</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>2981121650</v>
+        <v>5192831835</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>2991559909</v>
+        <v>5499832115</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>2991818743</v>
+        <v>5196048800</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>2991721226</v>
+        <v>5191170347</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>2991149501</v>
+        <v>5182030007</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>2981138616</v>
+        <v>5182657545</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>2984672760</v>
+        <v>5391178025</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>2991907200</v>
+        <v>5199866133</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>2992515175</v>
+        <v>5181308111</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>2982447311</v>
+        <v>5183282535</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>2981279940</v>
+        <v>5193010651</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>2995293138</v>
+        <v>5199628296</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>2992771101</v>
+        <v>5185041050</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>2981308029</v>
+        <v>5184276848</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>2981155186</v>
+        <v>5391229301</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>2991437272</v>
+        <v>5194549559</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>2995294085</v>
+        <v>5192437980</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>2991175725</v>
+        <v>5199204800</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>2981180920</v>
+        <v>5491513999</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>2982354760</v>
+        <v>5199131341</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>2994200934</v>
+        <v>5195982111</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>1149972956</v>
+        <v>5491183711</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>2991127539</v>
+        <v>5182118013</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>2994004008</v>
+        <v>5181419915</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>2981473019</v>
+        <v>5432861688</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>2982021976</v>
+        <v>5499608084</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>2993367430</v>
+        <v>5180367540</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>2991960504</v>
+        <v>8198647244</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>2991104639</v>
+        <v>5499442213</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>2982407860</v>
+        <v>5180212441</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>2982225009</v>
+        <v>5196967323</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>2981493913</v>
+        <v>5399652271</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>2991426531</v>
+        <v>5181827666</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>2981159079</v>
+        <v>5596352092</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>2991507413</v>
+        <v>5181914196</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>2984549226</v>
+        <v>5591635700</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>2981010308</v>
+        <v>5182091872</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>2995224040</v>
+        <v>5184269996</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>2991818213</v>
+        <v>5192114500</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>2991476303</v>
+        <v>4796650145</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>2981244730</v>
+        <v>5191419409</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>2981257790</v>
+        <v>5199814937</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>2996090365</v>
+        <v>5181379485</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>2981381059</v>
+        <v>5492402815</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>2991489351</v>
+        <v>5391559934</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>2984619454</v>
+        <v>5191916666</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>2991265188</v>
+        <v>5496504904</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>2991069730</v>
+        <v>5184462929</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>2994568195</v>
+        <v>2172171768</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>2992190682</v>
+        <v>5181254215</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>2984156119</v>
+        <v>5484135907</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>2981217728</v>
+        <v>5481499328</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>2993332429</v>
+        <v>5192054234</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>2981720221</v>
+        <v>5381334994</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>2993723883</v>
+        <v>5196919161</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>2981177321</v>
+        <v>5185059295</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>2981697768</v>
+        <v>5499398896</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>2991953884</v>
+        <v>5193116417</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>2981360551</v>
+        <v>5198797422</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>2993207344</v>
+        <v>5182287517</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>2993088729</v>
+        <v>5191178212</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>2991731933</v>
+        <v>5199698801</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>2993427353</v>
+        <v>4792704797</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>2993520237</v>
+        <v>5332225872</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>2981241645</v>
+        <v>5181618976</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>2991206932</v>
+        <v>5181038356</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>2981081705</v>
+        <v>5134724242</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>2991787287</v>
+        <v>5399214939</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>2981134376</v>
+        <v>5599038280</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>2981230746</v>
+        <v>5191216401</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>2982122064</v>
+        <v>5381043262</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>2981467400</v>
+        <v>5191037030</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>2996063466</v>
+        <v>5199433448</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>2991052481</v>
+        <v>5130864232</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>2992802837</v>
+        <v>5198889360</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>2992140043</v>
+        <v>5193342591</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>2981408123</v>
+        <v>5199446375</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>2984118408</v>
+        <v>5591331917</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>2991011020</v>
+        <v>5192985353</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>2991528611</v>
+        <v>5484383676</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>2994026149</v>
+        <v>5191614905</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>2981159390</v>
+        <v>5195028401</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>2991754112</v>
+        <v>5181423797</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>4498363705</v>
+        <v>5192400150</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>2982000825</v>
+        <v>4899156702</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>2993885844</v>
+        <v>5191619444</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>2993361346</v>
+        <v>5199096055</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>2995334100</v>
+        <v>5496913290</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>2992675589</v>
+        <v>5197068027</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>2992704581</v>
+        <v>5591187197</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>2994181703</v>
+        <v>5198313330</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>2981032290</v>
+        <v>5491614423</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>2991167976</v>
+        <v>5192327227</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>2991280036</v>
+        <v>5189483317</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>2991117151</v>
+        <v>5181119955</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>2981758838</v>
+        <v>5499115662</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>2984310824</v>
+        <v>5195972688</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>2991758002</v>
+        <v>5496346610</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>2992627141</v>
+        <v>5196371410</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>2991804425</v>
+        <v>5181236760</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>1130030677</v>
+        <v>5181145900</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>2984433317</v>
+        <v>5184741099</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>2993266121</v>
+        <v>5191672634</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>2988297786</v>
+        <v>5182903000</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>2992207657</v>
+        <v>5184464646</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>2993796337</v>
+        <v>5484125188</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>2999825742</v>
+        <v>5198144010</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>2981144148</v>
+        <v>5196114619</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>2996318076</v>
+        <v>5195767980</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>1896663457</v>
+        <v>5193875386</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>2991130895</v>
+        <v>5199554716</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>2991307434</v>
+        <v>5199197674</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>2984514531</v>
+        <v>5591679712</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>5984127350</v>
+        <v>5181141105</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>2991166454</v>
+        <v>5484334001</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>2982766179</v>
+        <v>5180453047</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>2981935817</v>
+        <v>5181586002</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>9233048182</v>
+        <v>5199809676</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>2992386986</v>
+        <v>5381438385</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>2982155440</v>
+        <v>5197028592</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>2981580303</v>
+        <v>5196406675</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>2999822617</v>
+        <v>5195145061</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>2981926000</v>
+        <v>5199278272</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>2999883595</v>
+        <v>5191273417</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>2981869307</v>
+        <v>5496473026</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>2981369737</v>
+        <v>5191769383</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>2981379794</v>
+        <v>4891520292</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>2992089273</v>
+        <v>5192346554</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>2988122458</v>
+        <v>5599407670</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>2992265058</v>
+        <v>5197081273</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>2999852576</v>
+        <v>5181054364</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>2994487138</v>
+        <v>5196139912</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>2992437446</v>
+        <v>5195524052</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>2991225815</v>
+        <v>5199140734</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>2984043053</v>
+        <v>5182403003</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>2992560571</v>
+        <v>5195361012</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>2992299944</v>
+        <v>5192817794</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>2981121282</v>
+        <v>5596249501</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>2999910771</v>
+        <v>5199513000</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>4898656088</v>
+        <v>5596805323</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>2991010859</v>
+        <v>5191134660</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>2982880304</v>
+        <v>5131105555</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>2981511944</v>
+        <v>5198060341</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>2992944364</v>
+        <v>5381156867</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>2999819200</v>
+        <v>5183084121</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>2996185595</v>
+        <v>5181439403</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>2993077484</v>
+        <v>5135172545</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>2981725877</v>
+        <v>5184426255</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>2999817606</v>
+        <v>1141265400</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>2993579410</v>
+        <v>1137824933</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>2991474641</v>
+        <v>5134160222</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>2984298407</v>
+        <v>5384519868</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>2981564636</v>
+        <v>5197273122</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>2991191112</v>
+        <v>5133740454</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>2994158223</v>
+        <v>5130860014</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>2981122604</v>
+        <v>5183156666</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>2982234237</v>
+        <v>5133140000</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>2999817726</v>
+        <v>5133988705</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>2981063231</v>
+        <v>5133964488</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>2992784462</v>
+        <v>5135732221</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>2993238836</v>
+        <v>5133770479</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>2981043264</v>
+        <v>5130353530</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>2982494464</v>
+        <v>5130856644</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>2991947746</v>
+        <v>5133077777</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>2981696899</v>
+        <v>5130730101</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>2992548884</v>
+        <v>5196865516</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>2992444264</v>
+        <v>5130621900</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>2991950302</v>
+        <v>5196646999</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>2982028694</v>
+        <v>5196576659</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>2994561881</v>
+        <v>1151822222</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>2991455879</v>
+        <v>1932315777</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>2984403861</v>
+        <v>5130751313</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>2994061387</v>
+        <v>5192308410</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>2992160846</v>
+        <v>1153180090</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>2994333459</v>
+        <v>5599701910</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>2992598730</v>
+        <v>5184396317</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>2167744438</v>
+        <v>5430137001</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>2993737322</v>
+        <v>5135740799</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>2991294900</v>
+        <v>5191911854</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>2981281823</v>
+        <v>5140666262</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>2981615599</v>
+        <v>5130625599</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>2991359913</v>
+        <v>5197941211</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>2993691543</v>
+        <v>5134169500</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>2982821650</v>
+        <v>5185947842</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>2981268000</v>
+        <v>5432951488</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>2984021405</v>
+        <v>5141040625</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>2982136912</v>
+        <v>5193429395</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>2991636803</v>
+        <v>5184862921</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>2992081422</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324">
-        <v>2994640464</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325">
-        <v>2993301933</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326">
-        <v>8288839124</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327">
-        <v>2981114323</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328">
-        <v>2994999591</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329">
-        <v>2992062300</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330">
-        <v>2991425569</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331">
-        <v>2999988251</v>
+        <v>5130454333</v>
       </c>
     </row>
   </sheetData>

--- a/output/Números.xlsx
+++ b/output/Números.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A323"/>
+  <dimension ref="A1:A289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,1617 +348,1447 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>5195985012</v>
+        <v>1123859000</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>5189110939</v>
+        <v>1138680255</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1992042297</v>
+        <v>1167294342</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>5199870531</v>
+        <v>1132080966</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>5185709078</v>
+        <v>1140630541</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>5198062922</v>
+        <v>1182622772</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>5192352166</v>
+        <v>1130590846</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>5131039434</v>
+        <v>1136811237</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>5391718005</v>
+        <v>1191852585</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>5491815799</v>
+        <v>1121984955</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>5399559696</v>
+        <v>1149542634</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>5599954002</v>
+        <v>1171452616</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>5384622876</v>
+        <v>1199593909</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>5194272250</v>
+        <v>1175092335</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>5186085513</v>
+        <v>1198508667</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>5184120190</v>
+        <v>1147502212</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>5381291809</v>
+        <v>1182760981</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>5499778793</v>
+        <v>1177459999</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>5185629329</v>
+        <v>1124082747</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>5192883618</v>
+        <v>1125037777</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>5191003305</v>
+        <v>1184706916</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>5399468748</v>
+        <v>1189251160</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>5199972760</v>
+        <v>1147712572</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>5197785151</v>
+        <v>1139262610</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>5197362665</v>
+        <v>1145023333</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>5492112438</v>
+        <v>1147502213</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>5384039234</v>
+        <v>1130180000</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>5195008005</v>
+        <v>1166236448</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>5185416666</v>
+        <v>1192625300</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>5492463076</v>
+        <v>1150633900</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>4899751500</v>
+        <v>1169409270</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>5399383100</v>
+        <v>7193777799</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>5533478117</v>
+        <v>1186961455</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>5196171774</v>
+        <v>1150810944</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>5184119494</v>
+        <v>1185334063</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>5199688452</v>
+        <v>1135129849</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>5192890927</v>
+        <v>1141131580</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>5496105566</v>
+        <v>1193099316</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>5196008541</v>
+        <v>1135677681</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>5199840400</v>
+        <v>1186595051</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>5182133000</v>
+        <v>1173777792</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>5191761292</v>
+        <v>1187999580</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>5199974929</v>
+        <v>1133589000</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>5391170535</v>
+        <v>1166355284</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>5186379661</v>
+        <v>1150117282</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>5332278847</v>
+        <v>1150802525</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>5195850502</v>
+        <v>1436245766</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>5599276675</v>
+        <v>1941191690</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>5491632436</v>
+        <v>1164796432</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>4792167049</v>
+        <v>1137742424</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>5184302620</v>
+        <v>1130680096</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>5491679793</v>
+        <v>1155993131</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>5197233563</v>
+        <v>1194029822</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>5381213020</v>
+        <v>1126515500</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>5381045339</v>
+        <v>1297197922</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>5491453030</v>
+        <v>1141343747</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>5195567071</v>
+        <v>1147053653</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>5384470938</v>
+        <v>1125010305</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>5198978781</v>
+        <v>1120618534</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>5185180064</v>
+        <v>1141151016</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>5599818933</v>
+        <v>2190328992</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>5391620042</v>
+        <v>1147265519</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>5198618949</v>
+        <v>1145087777</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>5199860812</v>
+        <v>1141077742</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>5191242607</v>
+        <v>1139325557</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>5193261343</v>
+        <v>1131594910</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>5496638730</v>
+        <v>1296619083</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>5192681739</v>
+        <v>1139342200</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>5197267170</v>
+        <v>1141452053</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>5182639576</v>
+        <v>1173234202</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>5191915402</v>
+        <v>1155923200</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>5181444450</v>
+        <v>1139099000</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>5121230707</v>
+        <v>1191289064</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>5189513671</v>
+        <v>1129717963</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>5191844038</v>
+        <v>1291661807</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>5384422861</v>
+        <v>1131072129</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>5199668232</v>
+        <v>1123481188</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>5381504550</v>
+        <v>1125929010</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>5194441933</v>
+        <v>1181028064</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>5199449945</v>
+        <v>1132738800</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>5196127755</v>
+        <v>1138046123</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>5199492870</v>
+        <v>1186593652</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>5199914285</v>
+        <v>1183833907</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>5199189966</v>
+        <v>1132340000</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>5192441159</v>
+        <v>1143269714</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>5186006800</v>
+        <v>1150792139</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>5184616145</v>
+        <v>1145563042</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>5136652002</v>
+        <v>1199716134</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>5134593391</v>
+        <v>1130030677</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>5191812881</v>
+        <v>1150618939</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>5193569988</v>
+        <v>1974010390</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>5481107257</v>
+        <v>1132249575</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>5191145084</v>
+        <v>1196415224</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>5195230167</v>
+        <v>1135429999</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>5199837149</v>
+        <v>1132071936</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>5496478960</v>
+        <v>1140749666</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>5196180841</v>
+        <v>1188776608</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>5599302121</v>
+        <v>1139322110</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>5599701258</v>
+        <v>1130901001</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>5491783763</v>
+        <v>1141738718</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>5184482192</v>
+        <v>1171139440</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>5180111788</v>
+        <v>1150963202</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>5384855916</v>
+        <v>1199917009</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>5193136024</v>
+        <v>1159368687</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>5592387666</v>
+        <v>1125000144</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>5399333362</v>
+        <v>1149182518</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>5193115652</v>
+        <v>1147211202</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>5496260528</v>
+        <v>1152470008</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>5196960896</v>
+        <v>1197004826</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>6699444747</v>
+        <v>1148125385</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>5181685058</v>
+        <v>1185511591</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>5193708617</v>
+        <v>1191313038</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>5181347742</v>
+        <v>1126940655</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>2197991302</v>
+        <v>1130321982</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>5181301213</v>
+        <v>1138841400</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>5391454894</v>
+        <v>1120218642</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>5195757300</v>
+        <v>1135866990</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>5384389401</v>
+        <v>1191465310</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>5199956319</v>
+        <v>1129152222</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>5191676712</v>
+        <v>1196490411</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>5193925547</v>
+        <v>1140033319</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>5198378308</v>
+        <v>1186186459</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>5191042550</v>
+        <v>1150715000</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>5184796036</v>
+        <v>1196422683</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>5199698902</v>
+        <v>1138129770</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>5193936515</v>
+        <v>1133841122</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>5184410490</v>
+        <v>1130107190</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>5185107238</v>
+        <v>1182851982</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>5199686262</v>
+        <v>1151498549</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>5192484971</v>
+        <v>1181647662</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>5196793550</v>
+        <v>1139031802</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>5199674010</v>
+        <v>1175915039</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>5182165957</v>
+        <v>1134439903</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>5186111880</v>
+        <v>1130952000</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>5192831835</v>
+        <v>1154604285</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>5499832115</v>
+        <v>1130180000</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>5196048800</v>
+        <v>1181897222</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>5191170347</v>
+        <v>1130609109</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>5182030007</v>
+        <v>1153307165</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>5182657545</v>
+        <v>1162870707</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>5391178025</v>
+        <v>1189798445</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>5199866133</v>
+        <v>1937700206</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>5181308111</v>
+        <v>1126596450</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>5183282535</v>
+        <v>1159627430</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>5193010651</v>
+        <v>1189623744</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>5199628296</v>
+        <v>1138861000</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>5185041050</v>
+        <v>1197359881</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>5184276848</v>
+        <v>1165954066</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>5391229301</v>
+        <v>1166944407</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>5194549559</v>
+        <v>1145023456</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>5192437980</v>
+        <v>1123380387</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>5199204800</v>
+        <v>1138582600</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>5491513999</v>
+        <v>1147421725</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>5199131341</v>
+        <v>1123735777</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>5195982111</v>
+        <v>1153109282</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>5491183711</v>
+        <v>1159041300</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>5182118013</v>
+        <v>1186615471</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>5181419915</v>
+        <v>2192224664</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>5432861688</v>
+        <v>1183581262</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>5499608084</v>
+        <v>1974112832</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>5180367540</v>
+        <v>1135083686</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>8198647244</v>
+        <v>1155217444</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>5499442213</v>
+        <v>1170209064</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>5180212441</v>
+        <v>1120917921</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>5196967323</v>
+        <v>1123864166</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>5399652271</v>
+        <v>1333854517</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>5181827666</v>
+        <v>1198142857</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>5596352092</v>
+        <v>1171955805</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>5181914196</v>
+        <v>1140459545</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>5591635700</v>
+        <v>1159298989</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>5182091872</v>
+        <v>1135898008</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>5184269996</v>
+        <v>8981480518</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>5192114500</v>
+        <v>8981391461</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>4796650145</v>
+        <v>1191286489</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>5191419409</v>
+        <v>1147327917</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>5199814937</v>
+        <v>1150586772</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>5181379485</v>
+        <v>1136417005</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>5492402815</v>
+        <v>1165244584</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>5391559934</v>
+        <v>1124424040</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>5191916666</v>
+        <v>1130935251</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>5496504904</v>
+        <v>1175725772</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>5184462929</v>
+        <v>1147490600</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>2172171768</v>
+        <v>1151812006</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>5181254215</v>
+        <v>1191044690</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>5484135907</v>
+        <v>1150416599</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>5481499328</v>
+        <v>1150798243</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>5192054234</v>
+        <v>1179896813</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>5381334994</v>
+        <v>1149331070</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>5196919161</v>
+        <v>1185123943</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>5185059295</v>
+        <v>1281427872</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>5499398896</v>
+        <v>1176308951</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>5193116417</v>
+        <v>1177099302</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>5198797422</v>
+        <v>1147091303</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>5182287517</v>
+        <v>1199946771</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>5191178212</v>
+        <v>1170252000</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>5199698801</v>
+        <v>1130180000</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>4792704797</v>
+        <v>1155242002</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>5332225872</v>
+        <v>1150907070</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>5181618976</v>
+        <v>1184845391</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>5181038356</v>
+        <v>1123670402</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>5134724242</v>
+        <v>1131815959</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>5399214939</v>
+        <v>1139040137</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>5599038280</v>
+        <v>1297444447</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>5191216401</v>
+        <v>1182773974</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>5381043262</v>
+        <v>1150014763</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>5191037030</v>
+        <v>1181729827</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>5199433448</v>
+        <v>1130180000</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>5130864232</v>
+        <v>1983922746</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>5198889360</v>
+        <v>2197033737</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>5193342591</v>
+        <v>1193233934</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>5199446375</v>
+        <v>1181265103</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>5591331917</v>
+        <v>1196554239</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>5192985353</v>
+        <v>1133332855</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>5484383676</v>
+        <v>1137133736</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>5191614905</v>
+        <v>1172182698</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>5195028401</v>
+        <v>1182236352</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>5181423797</v>
+        <v>1186300291</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>5192400150</v>
+        <v>3184688276</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>4899156702</v>
+        <v>2798803174</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>5191619444</v>
+        <v>1193931431</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>5199096055</v>
+        <v>1161050510</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>5496913290</v>
+        <v>1193112104</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>5197068027</v>
+        <v>1186019799</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>5591187197</v>
+        <v>1134699696</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>5198313330</v>
+        <v>1143391845</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>5491614423</v>
+        <v>1126727200</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>5192327227</v>
+        <v>1140028880</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>5189483317</v>
+        <v>1199611882</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>5181119955</v>
+        <v>1138343115</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>5499115662</v>
+        <v>1138311055</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>5195972688</v>
+        <v>1163089782</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>5496346610</v>
+        <v>1173650526</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>5196371410</v>
+        <v>1138527888</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>5181236760</v>
+        <v>1176329225</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>5181145900</v>
+        <v>1155390308</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>5184741099</v>
+        <v>1195955624</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>5191672634</v>
+        <v>1184714902</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>5182903000</v>
+        <v>1142271850</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>5184464646</v>
+        <v>1194914710</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>5484125188</v>
+        <v>1138574748</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>5198144010</v>
+        <v>1164641190</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>5196114619</v>
+        <v>1199507224</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>5195767980</v>
+        <v>1165182659</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>5193875386</v>
+        <v>1181227179</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>5199554716</v>
+        <v>1177861943</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>5199197674</v>
+        <v>1132776758</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>5591679712</v>
+        <v>1198640388</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>5181141105</v>
+        <v>1120965197</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>5484334001</v>
+        <v>1137688450</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>5180453047</v>
+        <v>1147602949</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>5181586002</v>
+        <v>1183070278</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>5199809676</v>
+        <v>1176263141</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>5381438385</v>
+        <v>1197997755</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>5197028592</v>
+        <v>1135627250</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>5196406675</v>
+        <v>6791453872</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>5195145061</v>
+        <v>1187666515</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>5199278272</v>
+        <v>1144467219</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>5191273417</v>
+        <v>1135828488</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>5496473026</v>
+        <v>1184440166</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>5191769383</v>
+        <v>3132699400</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>4891520292</v>
+        <v>1146001000</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>5192346554</v>
+        <v>1197070556</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>5599407670</v>
+        <v>1120470903</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>5197081273</v>
+        <v>1170693303</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>5181054364</v>
+        <v>1140348398</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>5196139912</v>
+        <v>1122360101</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>5195524052</v>
+        <v>1184319306</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>5199140734</v>
+        <v>1170771367</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>5182403003</v>
+        <v>1173756423</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>5195361012</v>
+        <v>1143396912</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>5192817794</v>
+        <v>1181714124</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>5596249501</v>
+        <v>1156524581</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>5199513000</v>
+        <v>1150197900</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>5596805323</v>
+        <v>1134594011</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>5191134660</v>
+        <v>1143564050</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>5131105555</v>
+        <v>1148929787</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>5198060341</v>
+        <v>1197573616</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>5381156867</v>
+        <v>1127977555</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>5183084121</v>
+        <v>1186201658</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>5181439403</v>
+        <v>1149943477</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>5135172545</v>
+        <v>1195343395</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>5184426255</v>
+        <v>1147073084</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>1141265400</v>
+        <v>1183240924</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>1137824933</v>
+        <v>1126923300</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>5134160222</v>
+        <v>1130180000</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>5384519868</v>
+        <v>1146281515</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>5197273122</v>
+        <v>1153017771</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>5133740454</v>
+        <v>1173371571</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>5130860014</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290">
-        <v>5183156666</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291">
-        <v>5133140000</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292">
-        <v>5133988705</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293">
-        <v>5133964488</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294">
-        <v>5135732221</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295">
-        <v>5133770479</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296">
-        <v>5130353530</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297">
-        <v>5130856644</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298">
-        <v>5133077777</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299">
-        <v>5130730101</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300">
-        <v>5196865516</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301">
-        <v>5130621900</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302">
-        <v>5196646999</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303">
-        <v>5196576659</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304">
-        <v>1151822222</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305">
-        <v>1932315777</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306">
-        <v>5130751313</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307">
-        <v>5192308410</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308">
-        <v>1153180090</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309">
-        <v>5599701910</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310">
-        <v>5184396317</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311">
-        <v>5430137001</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312">
-        <v>5135740799</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313">
-        <v>5191911854</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314">
-        <v>5140666262</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315">
-        <v>5130625599</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316">
-        <v>5197941211</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317">
-        <v>5134169500</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318">
-        <v>5185947842</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319">
-        <v>5432951488</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320">
-        <v>5141040625</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321">
-        <v>5193429395</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322">
-        <v>5184862921</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323">
-        <v>5130454333</v>
+        <v>1521050380</v>
       </c>
     </row>
   </sheetData>
